--- a/Task One/Test3/Result/Test3_summary.xlsx
+++ b/Task One/Test3/Result/Test3_summary.xlsx
@@ -8,17 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="CH0" sheetId="2" r:id="rId2"/>
-    <sheet name="CH1" sheetId="3" r:id="rId3"/>
-    <sheet name="CH2" sheetId="4" r:id="rId4"/>
-    <sheet name="CH3" sheetId="5" r:id="rId5"/>
+    <sheet name="CH1" sheetId="2" r:id="rId2"/>
+    <sheet name="CH2" sheetId="3" r:id="rId3"/>
+    <sheet name="CH3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Channel</t>
   </si>
@@ -669,7 +668,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -756,6 +755,255 @@
       </c>
       <c r="AA1" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>1803456789</v>
+      </c>
+      <c r="C2">
+        <v>1897654321</v>
+      </c>
+      <c r="D2">
+        <v>93245</v>
+      </c>
+      <c r="E2">
+        <v>49765</v>
+      </c>
+      <c r="F2">
+        <v>23978</v>
+      </c>
+      <c r="G2">
+        <v>11587</v>
+      </c>
+      <c r="H2">
+        <v>291432.7</v>
+      </c>
+      <c r="I2">
+        <v>13.21</v>
+      </c>
+      <c r="J2">
+        <v>1643</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>123</v>
+      </c>
+      <c r="M2">
+        <v>97</v>
+      </c>
+      <c r="N2">
+        <v>85</v>
+      </c>
+      <c r="O2">
+        <v>173</v>
+      </c>
+      <c r="P2">
+        <v>4.28</v>
+      </c>
+      <c r="Q2">
+        <v>3.1</v>
+      </c>
+      <c r="R2">
+        <v>194</v>
+      </c>
+      <c r="S2">
+        <v>323</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>930</v>
+      </c>
+      <c r="W2">
+        <v>1802</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="Y2">
+        <v>120</v>
+      </c>
+      <c r="Z2">
+        <v>1432.785</v>
+      </c>
+      <c r="AA2">
+        <v>1898765432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>1803456789</v>
+      </c>
+      <c r="C3">
+        <v>1897654321</v>
+      </c>
+      <c r="D3">
+        <v>49812</v>
+      </c>
+      <c r="E3">
+        <v>27890</v>
+      </c>
+      <c r="F3">
+        <v>12976</v>
+      </c>
+      <c r="G3">
+        <v>7021</v>
+      </c>
+      <c r="H3">
+        <v>291432.7</v>
+      </c>
+      <c r="I3">
+        <v>6.99</v>
+      </c>
+      <c r="J3">
+        <v>698</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>110</v>
+      </c>
+      <c r="O3">
+        <v>72</v>
+      </c>
+      <c r="P3">
+        <v>2.93</v>
+      </c>
+      <c r="Q3">
+        <v>1.8</v>
+      </c>
+      <c r="R3">
+        <v>159</v>
+      </c>
+      <c r="S3">
+        <v>256</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>555</v>
+      </c>
+      <c r="W3">
+        <v>970</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>120</v>
+      </c>
+      <c r="Z3">
+        <v>1432.785</v>
+      </c>
+      <c r="AA3">
+        <v>1898765432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>1803456789</v>
+      </c>
+      <c r="C4">
+        <v>1897654321</v>
+      </c>
+      <c r="D4">
+        <v>143057</v>
+      </c>
+      <c r="E4">
+        <v>77655</v>
+      </c>
+      <c r="F4">
+        <v>36954</v>
+      </c>
+      <c r="G4">
+        <v>18608</v>
+      </c>
+      <c r="H4">
+        <v>582865.4</v>
+      </c>
+      <c r="I4">
+        <v>20.2</v>
+      </c>
+      <c r="J4">
+        <v>2341</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>141</v>
+      </c>
+      <c r="M4">
+        <v>107</v>
+      </c>
+      <c r="N4">
+        <v>195</v>
+      </c>
+      <c r="O4">
+        <v>245</v>
+      </c>
+      <c r="P4">
+        <v>7.210000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>4.9</v>
+      </c>
+      <c r="R4">
+        <v>353</v>
+      </c>
+      <c r="S4">
+        <v>579</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>1485</v>
+      </c>
+      <c r="W4">
+        <v>2772</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>240</v>
+      </c>
+      <c r="Z4">
+        <v>2865.57</v>
+      </c>
+      <c r="AA4">
+        <v>1898765432</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1104,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1803456789</v>
@@ -865,64 +1113,64 @@
         <v>1897654321</v>
       </c>
       <c r="D2">
-        <v>93245</v>
+        <v>94532</v>
       </c>
       <c r="E2">
-        <v>49765</v>
+        <v>51234</v>
       </c>
       <c r="F2">
-        <v>23978</v>
+        <v>24432</v>
       </c>
       <c r="G2">
-        <v>11587</v>
+        <v>11897</v>
       </c>
       <c r="H2">
-        <v>291432.7</v>
+        <v>298754.8</v>
       </c>
       <c r="I2">
-        <v>13.21</v>
+        <v>14.1</v>
       </c>
       <c r="J2">
-        <v>1643</v>
+        <v>1678</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="N2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P2">
-        <v>4.28</v>
+        <v>4.35</v>
       </c>
       <c r="Q2">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="R2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="S2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
         <v>1</v>
       </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
       <c r="V2">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="W2">
-        <v>1802</v>
+        <v>1885</v>
       </c>
       <c r="X2">
         <v>5</v>
@@ -939,7 +1187,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>1803456789</v>
@@ -948,52 +1196,52 @@
         <v>1897654321</v>
       </c>
       <c r="D3">
-        <v>49812</v>
+        <v>51278</v>
       </c>
       <c r="E3">
-        <v>27890</v>
+        <v>29430</v>
       </c>
       <c r="F3">
-        <v>12976</v>
+        <v>13658</v>
       </c>
       <c r="G3">
-        <v>7021</v>
+        <v>7345</v>
       </c>
       <c r="H3">
-        <v>291432.7</v>
+        <v>298754.8</v>
       </c>
       <c r="I3">
-        <v>6.99</v>
+        <v>7.12</v>
       </c>
       <c r="J3">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N3">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O3">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P3">
-        <v>2.93</v>
+        <v>2.99</v>
       </c>
       <c r="Q3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R3">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="S3">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1002,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>555</v>
+        <v>590</v>
       </c>
       <c r="W3">
-        <v>970</v>
+        <v>1023</v>
       </c>
       <c r="X3">
         <v>5</v>
@@ -1031,64 +1279,64 @@
         <v>1897654321</v>
       </c>
       <c r="D4">
-        <v>143057</v>
+        <v>145810</v>
       </c>
       <c r="E4">
-        <v>77655</v>
+        <v>80664</v>
       </c>
       <c r="F4">
-        <v>36954</v>
+        <v>38090</v>
       </c>
       <c r="G4">
-        <v>18608</v>
+        <v>19242</v>
       </c>
       <c r="H4">
-        <v>582865.4</v>
+        <v>597509.6</v>
       </c>
       <c r="I4">
-        <v>20.2</v>
+        <v>21.22</v>
       </c>
       <c r="J4">
-        <v>2341</v>
+        <v>2413</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="M4">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="N4">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O4">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="P4">
-        <v>7.210000000000001</v>
+        <v>7.34</v>
       </c>
       <c r="Q4">
-        <v>4.9</v>
+        <v>5.16</v>
       </c>
       <c r="R4">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="S4">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1485</v>
+        <v>1535</v>
       </c>
       <c r="W4">
-        <v>2772</v>
+        <v>2908</v>
       </c>
       <c r="X4">
         <v>10</v>
@@ -1201,351 +1449,6 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>1803456789</v>
-      </c>
-      <c r="C2">
-        <v>1897654321</v>
-      </c>
-      <c r="D2">
-        <v>94532</v>
-      </c>
-      <c r="E2">
-        <v>51234</v>
-      </c>
-      <c r="F2">
-        <v>24432</v>
-      </c>
-      <c r="G2">
-        <v>11897</v>
-      </c>
-      <c r="H2">
-        <v>298754.8</v>
-      </c>
-      <c r="I2">
-        <v>14.1</v>
-      </c>
-      <c r="J2">
-        <v>1678</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>128</v>
-      </c>
-      <c r="M2">
-        <v>103</v>
-      </c>
-      <c r="N2">
-        <v>92</v>
-      </c>
-      <c r="O2">
-        <v>180</v>
-      </c>
-      <c r="P2">
-        <v>4.35</v>
-      </c>
-      <c r="Q2">
-        <v>3.21</v>
-      </c>
-      <c r="R2">
-        <v>200</v>
-      </c>
-      <c r="S2">
-        <v>330</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>945</v>
-      </c>
-      <c r="W2">
-        <v>1885</v>
-      </c>
-      <c r="X2">
-        <v>5</v>
-      </c>
-      <c r="Y2">
-        <v>120</v>
-      </c>
-      <c r="Z2">
-        <v>1432.785</v>
-      </c>
-      <c r="AA2">
-        <v>1898765432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>1803456789</v>
-      </c>
-      <c r="C3">
-        <v>1897654321</v>
-      </c>
-      <c r="D3">
-        <v>51278</v>
-      </c>
-      <c r="E3">
-        <v>29430</v>
-      </c>
-      <c r="F3">
-        <v>13658</v>
-      </c>
-      <c r="G3">
-        <v>7345</v>
-      </c>
-      <c r="H3">
-        <v>298754.8</v>
-      </c>
-      <c r="I3">
-        <v>7.12</v>
-      </c>
-      <c r="J3">
-        <v>735</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>23</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>107</v>
-      </c>
-      <c r="O3">
-        <v>78</v>
-      </c>
-      <c r="P3">
-        <v>2.99</v>
-      </c>
-      <c r="Q3">
-        <v>1.95</v>
-      </c>
-      <c r="R3">
-        <v>170</v>
-      </c>
-      <c r="S3">
-        <v>265</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>590</v>
-      </c>
-      <c r="W3">
-        <v>1023</v>
-      </c>
-      <c r="X3">
-        <v>5</v>
-      </c>
-      <c r="Y3">
-        <v>120</v>
-      </c>
-      <c r="Z3">
-        <v>1432.785</v>
-      </c>
-      <c r="AA3">
-        <v>1898765432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>1803456789</v>
-      </c>
-      <c r="C4">
-        <v>1897654321</v>
-      </c>
-      <c r="D4">
-        <v>145810</v>
-      </c>
-      <c r="E4">
-        <v>80664</v>
-      </c>
-      <c r="F4">
-        <v>38090</v>
-      </c>
-      <c r="G4">
-        <v>19242</v>
-      </c>
-      <c r="H4">
-        <v>597509.6</v>
-      </c>
-      <c r="I4">
-        <v>21.22</v>
-      </c>
-      <c r="J4">
-        <v>2413</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>151</v>
-      </c>
-      <c r="M4">
-        <v>115</v>
-      </c>
-      <c r="N4">
-        <v>199</v>
-      </c>
-      <c r="O4">
-        <v>258</v>
-      </c>
-      <c r="P4">
-        <v>7.34</v>
-      </c>
-      <c r="Q4">
-        <v>5.16</v>
-      </c>
-      <c r="R4">
-        <v>370</v>
-      </c>
-      <c r="S4">
-        <v>595</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>1535</v>
-      </c>
-      <c r="W4">
-        <v>2908</v>
-      </c>
-      <c r="X4">
-        <v>10</v>
-      </c>
-      <c r="Y4">
-        <v>240</v>
-      </c>
-      <c r="Z4">
-        <v>2865.57</v>
-      </c>
-      <c r="AA4">
-        <v>1898765432</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2">
